--- a/question.xlsx
+++ b/question.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elite/Desktop/work/studyOnline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koufulong/Desktop/Design/studyOnline/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19540" yWindow="3400" windowWidth="13080" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,66 @@
   </si>
   <si>
     <t>加工处理数字信号的电路。即能对数字信号进行算术运算和逻辑运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1判断2选择3填空4简答</t>
+    <rPh sb="1" eb="2">
+      <t>pan'duan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tian'kong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jian'da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定要写对应</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dui'ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择判断需要这样写 填空简答不需要写</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pan'duan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhe'yang'xie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tian'kong</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jian'da</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bu'xu'yao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xie</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,6 +556,19 @@
         <v>7</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
